--- a/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/VENTAS  CENTRAL   AGOSTO  2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/CENTRAL #08  AGOSTO  2023/VENTAS  CENTRAL   AGOSTO  2023.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL   ARCHIVO   2 0 2 3\CENTRAL #08  AGOSTO  2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL#16   ARCHIVO   2 0 2 3\CENTRAL #08  AGOSTO  2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22575" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22575" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="VENTAS    CENTRAL  AGOSTO    " sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="99">
   <si>
     <t>Fecha</t>
   </si>
@@ -337,7 +337,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +355,14 @@
     <font>
       <b/>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -425,7 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -440,6 +448,9 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -8719,8 +8730,8 @@
   </sheetPr>
   <dimension ref="B3:K248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="B200" sqref="B200:K217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17704,12 +17715,596 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7">
+        <v>13061</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="7">
+        <v>60.85</v>
+      </c>
+      <c r="F3" s="14">
+        <v>7899.25</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="13">
+        <v>7899.25</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7">
+        <v>13102</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="7">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="F4" s="14">
+        <v>8295.7000000000007</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="13">
+        <v>8295.7000000000007</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>13118</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3</v>
+      </c>
+      <c r="F5" s="14">
+        <v>168</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="13">
+        <v>168</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3">
+        <v>13127</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="15">
+        <v>500</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="12">
+        <v>500</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7">
+        <v>13128</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="7">
+        <v>57.03</v>
+      </c>
+      <c r="F7" s="14">
+        <v>6377</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="13">
+        <v>6377</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7">
+        <v>13130</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="14">
+        <v>144</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="13">
+        <v>144</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7">
+        <v>13152</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1050</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1050</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3">
+        <v>13157</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1456</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1456</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7">
+        <v>13160</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="7">
+        <v>11.7</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1170</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1170</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="7">
+        <v>13176</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="7">
+        <v>142.44999999999999</v>
+      </c>
+      <c r="F12" s="14">
+        <v>11050</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="13">
+        <v>11050</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3">
+        <v>13227</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10.23</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1202.02</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1202.02</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3">
+        <v>13247</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="3">
+        <v>13</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1040</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1040</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="7">
+        <v>13260</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="7">
+        <v>96.35</v>
+      </c>
+      <c r="F15" s="14">
+        <v>10168.200000000001</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="13">
+        <v>10168.200000000001</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3">
+        <v>13271</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="3">
+        <v>71.8</v>
+      </c>
+      <c r="F16" s="15">
+        <v>8210.4</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="12">
+        <v>8210.4</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3">
+        <v>13273</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="3">
+        <v>17.02</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1512.8</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1512.8</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="7">
+        <v>13286</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="7">
+        <v>10</v>
+      </c>
+      <c r="F18" s="14">
+        <v>800</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="13">
+        <v>800</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3">
+        <v>13295</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="3">
+        <v>105</v>
+      </c>
+      <c r="F19" s="15">
+        <v>11159.9</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="12">
+        <v>11159.9</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="7">
+        <v>13298</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4</v>
+      </c>
+      <c r="F20" s="14">
+        <v>456</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="13">
+        <v>456</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
